--- a/ResultadoEleicoesDistritos/SANTARÉM_CORUCHE.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_CORUCHE.xlsx
@@ -597,25 +597,25 @@
         <v>4689</v>
       </c>
       <c r="H2" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I2" t="n">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="J2" t="n">
-        <v>1916</v>
+        <v>1996</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="M2" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N2" t="n">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -624,37 +624,37 @@
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S2" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="T2" t="n">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="U2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V2" t="n">
-        <v>2991</v>
+        <v>2963</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3052</v>
+        <v>2959</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
